--- a/documentacion/Historia 4/casos_de_prueba.xlsx
+++ b/documentacion/Historia 4/casos_de_prueba.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Documentacion\Historia 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8487911-550D-4F78-8095-3B3A7F889B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E056D2-3ECC-4FB7-A001-82619A42EC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>ID Caso de Prueba</t>
   </si>
@@ -37,9 +50,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>QA Tester Log</t>
   </si>
   <si>
@@ -97,79 +107,103 @@
     <t>Cristobal Pérez</t>
   </si>
   <si>
-    <t>Not executed</t>
-  </si>
-  <si>
-    <t>La secretaria o el director debe haber iniciado sesión en el sistema.</t>
+    <t>Semestres disponibles: 2023-1, 2023-2, 2024-1.</t>
+  </si>
+  <si>
+    <t>El sistema permite al usuario iniciar sesión correctamente.</t>
+  </si>
+  <si>
+    <t>El usuario inició sesión correctamente.</t>
+  </si>
+  <si>
+    <t>Pass.</t>
+  </si>
+  <si>
+    <t>Exportar el informe a un archivo en formato PDF o Excel.</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista completa de profesores </t>
+  </si>
+  <si>
+    <t>La informacion cargada en el sistema debe ser: los semestres 2023-1, 2023-2, 2024-1 y los respectivos profesores inscritos en esos años.</t>
+  </si>
+  <si>
+    <t>Iniciar sesión con el usuario admin@uach.cl y contraseña ADMIN123</t>
+  </si>
+  <si>
+    <t>Navegar a la sección Generación de Informes desde el menú principal.</t>
+  </si>
+  <si>
+    <t>La sección de informes muestra opciones para generar informes con respecto a la carga académica y sobre la asignación de profesores.</t>
+  </si>
+  <si>
+    <t>El sistema permite seleccionar el semestre y mostrar las asignaturas correspondientes.</t>
+  </si>
+  <si>
+    <t>Seleccionar el semestre 2023-1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario quiere crear y descargar un informe de asignación de asignaturas que describa el total de asignaturas impartidas para el semestre 2023-1. </t>
+  </si>
+  <si>
+    <t>Generar un informe detallado que incluya: nombre del curso, código, profesor, créditos.</t>
+  </si>
+  <si>
+    <t>El sistema genera un informe con los datos seleccionados y lo muestra en pantalla como previsualización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema permite la exportación del informe en el formato deseado y el archivo se descarga.	</t>
+  </si>
+  <si>
+    <t>Flujo alternativo con errores.</t>
+  </si>
+  <si>
+    <t>El sistema muestra la sección con la opción de generar informes sobre carga académica y asignación de asignaturas.</t>
+  </si>
+  <si>
+    <t>El sistema le permite seleccionar el semestre y muestra las asignaturas correspondientes.</t>
+  </si>
+  <si>
+    <t>El sistema genera el informe con los datos seleccionados y previsualizados.</t>
+  </si>
+  <si>
+    <t>El usuario puede exportar el informe en formato pdf.</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error: "Usuario o contraseña incorrectos".</t>
+  </si>
+  <si>
+    <t>Ingresar credenciales incorrectas: Escribir un correo o contraseña inválida, como usuario@inf.cl  y  contraseña: usuario1.</t>
+  </si>
+  <si>
+    <t>Credenciales correctas: usuario admin@uach.cl con contraseña ADMIN123</t>
+  </si>
+  <si>
+    <t>Credenciales incorrectas: usuario@inf.cl  y  contraseña: usuario1.</t>
+  </si>
+  <si>
+    <t>El mensaje se mostró correctamente y no se inició sesión.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje: "No se encontraron cursos para el semestre".</t>
+  </si>
+  <si>
+    <t>El mensaje se mostró correctamente y no se cargaron datos.</t>
+  </si>
+  <si>
+    <t>Seleccionar un semestre sin datos disponibles: Elegir un semestre para el cual no existen cursos registrados como 2025-1.</t>
+  </si>
+  <si>
+    <t>El usuario admin@uach.cl con contraseña ADMIN123 debe estar registrado y tener acceso al sistema.</t>
   </si>
   <si>
     <t>Los datos de asignación de cursos, carga horaria e información de profesores deben estar disponibles en el sistema.</t>
-  </si>
-  <si>
-    <t>El sistema debe estar configurado para permitir la generación de informes con filtros y opciones de ordenación.</t>
-  </si>
-  <si>
-    <t>Semestres disponibles: 2023-1, 2023-2, 2024-1.</t>
-  </si>
-  <si>
-    <t>Criterios de filtrado (escuela, profesor, creditos, etc.)</t>
-  </si>
-  <si>
-    <t>Parámetros de ordenación: Nombre del curso, nombre del profesor, número de inscripciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario quiere crear y descargar un informe de cursos que describa el total de asignaturas impartidas para la escuela de ingenieria civil en construción. </t>
-  </si>
-  <si>
-    <t>Iniciar sesión como secretaria o director en el sistema.</t>
-  </si>
-  <si>
-    <t>El sistema permite al usuario iniciar sesión correctamente.</t>
-  </si>
-  <si>
-    <t>El usuario inició sesión correctamente.</t>
-  </si>
-  <si>
-    <t>Pass.</t>
-  </si>
-  <si>
-    <t>Navegar a la sección de generación de informes.</t>
-  </si>
-  <si>
-    <t>El sistema muestra las opciones para seleccionar parámetros de generación de informes.</t>
-  </si>
-  <si>
-    <t>Not executed.</t>
-  </si>
-  <si>
-    <t>Seleccionar el semestre y la categoría de curso (ejemplo: 2023-1, Pregrado).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema permite seleccionar el semestre y categoría y muestra la lista filtrada de cursos.	</t>
-  </si>
-  <si>
-    <t>Aplicar filtros adicionales (ejemplo: profesor específico)</t>
-  </si>
-  <si>
-    <t>El sistema aplica correctamente los filtros seleccionados.</t>
-  </si>
-  <si>
-    <t>Ordenar los informes por el nombre del curso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema ordena la lista de informes por el nombre del curso en orden ascendente o descendente.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Generar un informe con la información detallada (nombre del curso, código, departamento, profesor asignado).</t>
-  </si>
-  <si>
-    <t>El sistema genera un informe que incluye los datos especificados.</t>
-  </si>
-  <si>
-    <t>Exportar el informe a un archivo en formato PDF o Excel.</t>
-  </si>
-  <si>
-    <t>El sistema permite la exportación del informe en el formato deseado y el archivo se descarga.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,6 +233,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,11 +446,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -409,23 +462,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -435,13 +515,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,10 +755,10 @@
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,60 +766,60 @@
     <col min="2" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="15"/>
+      <c r="M3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -742,11 +834,11 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19"/>
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -759,7 +851,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -774,51 +866,51 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="34">
+        <v>45631</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="23">
-        <v>45605</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -834,124 +926,126 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6">
         <v>2</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -962,7 +1056,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -972,21 +1066,21 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -996,7 +1090,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1011,316 +1105,437 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="27" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="27" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="M19" s="16"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="37"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>6</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>7</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="16"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>4</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>5</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
-        <v>6</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>7</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="13"/>
+      <c r="C42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:H34"/>
@@ -1334,33 +1549,26 @@
     <mergeCell ref="E31:H32"/>
     <mergeCell ref="I31:K32"/>
     <mergeCell ref="L31:N32"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I27:K28"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="E27:H28"/>
+    <mergeCell ref="E25:H26"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="E19:H20"/>
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="L25:N26"/>
-    <mergeCell ref="I27:K28"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="E27:H28"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="I21:K22"/>
     <mergeCell ref="L21:N22"/>
     <mergeCell ref="I23:K24"/>
     <mergeCell ref="L23:N24"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="L25:N26"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:N2"/>
@@ -1368,12 +1576,12 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="J14:N14"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="C21:D22"/>
@@ -1382,12 +1590,34 @@
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:H24"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="I38:K39"/>
+    <mergeCell ref="L38:N39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="I40:K41"/>
+    <mergeCell ref="L40:N41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="L42:N43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
